--- a/Candidatures.xlsx
+++ b/Candidatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22068" windowHeight="10032"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22065" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>plateforme Synergie</t>
+  </si>
+  <si>
+    <t>DEVELOPPEUR-INTEGRATEUR DE LOGICIELS</t>
+  </si>
+  <si>
+    <t>Villeneuve-d'Ascq</t>
+  </si>
+  <si>
+    <t>Pôle Emploi via Keljob</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -431,17 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -589,6 +602,29 @@
       </c>
       <c r="G6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -615,7 +651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Candidatures.xlsx
+++ b/Candidatures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -60,9 +60,6 @@
     <t>mode contact</t>
   </si>
   <si>
-    <t>plateforme, postule via LnkedIn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Développeur.se Front end </t>
   </si>
   <si>
@@ -90,16 +87,91 @@
     <t>plateforme Synergie</t>
   </si>
   <si>
-    <t>DEVELOPPEUR-INTEGRATEUR DE LOGICIELS</t>
+    <t>Douai</t>
+  </si>
+  <si>
+    <t>Développeur front/web designer</t>
+  </si>
+  <si>
+    <t>Webmaster</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>Tourcoing</t>
+  </si>
+  <si>
+    <t>plateforme, candidature via LnkedIn</t>
+  </si>
+  <si>
+    <t>Keljob, candidature via PagePersonnel</t>
+  </si>
+  <si>
+    <t>Meteojob, candidature via Randstadt</t>
+  </si>
+  <si>
+    <t>Atecna</t>
+  </si>
+  <si>
+    <t>Développeur Front</t>
+  </si>
+  <si>
+    <t>Wasquehal</t>
+  </si>
+  <si>
+    <t>meteojob, contact mail</t>
+  </si>
+  <si>
+    <t>meteojob, candidature via PagePersonnel</t>
+  </si>
+  <si>
+    <t>Wexperience</t>
+  </si>
+  <si>
+    <t>Développeur Front-end</t>
+  </si>
+  <si>
+    <t>monster.fr</t>
+  </si>
+  <si>
+    <t>Atran</t>
+  </si>
+  <si>
+    <t>Développeur web front/back</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>INEAT</t>
+  </si>
+  <si>
+    <t>Développeur front-end</t>
+  </si>
+  <si>
+    <t>Auchan Retail</t>
+  </si>
+  <si>
+    <t>Developpeur Front-end Intégrateur html</t>
   </si>
   <si>
     <t>Villeneuve-d'Ascq</t>
   </si>
   <si>
-    <t>Pôle Emploi via Keljob</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Ingénieur Dévelopeur Full Stack</t>
+  </si>
+  <si>
+    <t>COEZION</t>
+  </si>
+  <si>
+    <t>Développeur Intégrateur Front</t>
   </si>
 </sst>
 </file>
@@ -155,6 +227,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,18 +523,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -503,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -520,19 +599,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -543,19 +622,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -566,19 +645,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -586,30 +665,30 @@
         <v>43282</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>43285</v>
+        <v>43290</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -618,18 +697,222 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>43290</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>43290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>43290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>43290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>43335</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Candidatures.xlsx
+++ b/Candidatures.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
   <si>
     <t>date</t>
   </si>
@@ -172,6 +173,36 @@
   </si>
   <si>
     <t>Développeur Intégrateur Front</t>
+  </si>
+  <si>
+    <t>Développeur Intégrateur de Logiciels</t>
+  </si>
+  <si>
+    <t>pôle emploi</t>
+  </si>
+  <si>
+    <t>Développeur Web</t>
+  </si>
+  <si>
+    <t>Arras</t>
+  </si>
+  <si>
+    <t>Supplay via NordJob</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Kalyptus</t>
+  </si>
+  <si>
+    <t>Développeur PHP</t>
+  </si>
+  <si>
+    <t>CDi</t>
+  </si>
+  <si>
+    <t>Studio RH</t>
   </si>
 </sst>
 </file>
@@ -523,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -908,6 +939,86 @@
       </c>
       <c r="G16" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>43339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>43339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
